--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\eps-us-2.1.0\eps-us-2.1.0\InputData\trans\BMRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF66CDB-0457-4F9F-8E4E-44B9458844EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="23952" windowHeight="12096"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -56,13 +57,28 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>in India for any vehicle type.</t>
+    <t>Sales Percentage (dimensionless)</t>
+  </si>
+  <si>
+    <t>mandate in India for any vehicle type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In BAU, there are only policies for incentivising demand </t>
+  </si>
+  <si>
+    <t>creation such as the Faster Adoption and Manufacturing of</t>
+  </si>
+  <si>
+    <t>Hybrid and Electric Vehicles (FAME) scheme which provides</t>
+  </si>
+  <si>
+    <t>subsidies for purchase of different EV types.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,6 +215,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,6 +267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,19 +459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -426,19 +481,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -456,12 +531,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -568,7 +646,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -678,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -788,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -898,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1242,12 +1320,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1354,7 +1435,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
